--- a/NFLStats/S/S_aggregate.xlsx
+++ b/NFLStats/S/S_aggregate.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -924,6 +924,294 @@
         <v>-14</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Harrison Smith</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>9.333333333333334</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>67.33333333333333</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>28.66666666666667</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>Harrison Smith</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>88.33333333333333</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>60.66666666666666</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>27.66666666666667</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>Harrison Smith</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>-1.666666666666667</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>-7.666666666666671</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>-6.666666666666664</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>Jalen Mills</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>Jalen Mills</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>Jalen Mills</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>-1.666666666666667</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>-14</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>-18</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>Julian Love</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>55.66666666666666</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>37.66666666666666</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>Julian Love</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>118.6666666666667</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>37.66666666666666</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Julian Love</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>63.00000000000001</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>43.33333333333334</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>19.66666666666666</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>Marcus Williams</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="n">
+        <v>9.333333333333334</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>62.66666666666666</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>43.66666666666666</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>Marcus Williams</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>49.66666666666666</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>14.66666666666667</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>Marcus Williams</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="n">
+        <v>-3.333333333333334</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>-8.666666666666664</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>-4.333333333333334</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NFLStats/S/S_aggregate.xlsx
+++ b/NFLStats/S/S_aggregate.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1284,6 +1284,222 @@
         <v>8.333333333333332</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>Jimmie Ward</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D35" s="3" t="n">
+        <v>71.66666666666667</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>22.66666666666667</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>Jimmie Ward</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>49.33333333333334</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>34.33333333333334</v>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>Jimmie Ward</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D37" s="3" t="n">
+        <v>-22.33333333333334</v>
+      </c>
+      <c r="E37" s="3" t="n">
+        <v>-14.66666666666666</v>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>-7.666666666666668</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>Minkah Fitzpatrick</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>57.77777777777777</v>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>25.22222222222222</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>Minkah Fitzpatrick</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>85.33333333333333</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>53.66666666666666</v>
+      </c>
+      <c r="F39" s="2" t="n">
+        <v>31.66666666666667</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>Minkah Fitzpatrick</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>2.333333333333329</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>-4.111111111111107</v>
+      </c>
+      <c r="F40" s="2" t="n">
+        <v>6.444444444444443</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>Rodney McLeod</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="n">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="D41" s="3" t="n">
+        <v>66.66666666666667</v>
+      </c>
+      <c r="E41" s="3" t="n">
+        <v>40.33333333333334</v>
+      </c>
+      <c r="F41" s="3" t="n">
+        <v>26.33333333333333</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>Rodney McLeod</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="n">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="D42" s="3" t="n">
+        <v>54.66666666666666</v>
+      </c>
+      <c r="E42" s="3" t="n">
+        <v>34.33333333333334</v>
+      </c>
+      <c r="F42" s="3" t="n">
+        <v>20.33333333333333</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>Rodney McLeod</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D43" s="3" t="n">
+        <v>-12.00000000000001</v>
+      </c>
+      <c r="E43" s="3" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>-6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
